--- a/results/tc/results.xlsx
+++ b/results/tc/results.xlsx
@@ -355,11 +355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="81031168"/>
-        <c:axId val="81032704"/>
+        <c:axId val="91336704"/>
+        <c:axId val="91338240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81031168"/>
+        <c:axId val="91336704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,7 +369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81032704"/>
+        <c:crossAx val="91338240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -377,7 +377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81032704"/>
+        <c:axId val="91338240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,14 +388,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81031168"/>
+        <c:crossAx val="91336704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -734,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O33" s="6">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P33" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="6">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="R33" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S33" s="4">
         <v>0</v>
@@ -1742,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="N34" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O34" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P34" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="6">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="R34" s="6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S34" s="4">
         <v>0</v>
@@ -1804,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="N35" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O35" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R35" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" s="4">
         <v>0</v>
@@ -1866,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="N36" s="6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O36" s="6">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="P36" s="6">
         <v>6</v>
       </c>
       <c r="Q36" s="7">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="R36" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S36" s="4">
         <v>0</v>
@@ -1928,19 +1927,19 @@
         <v>0</v>
       </c>
       <c r="N37" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O37" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P37" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="6">
         <v>2</v>
       </c>
-      <c r="Q37" s="6">
-        <v>28</v>
-      </c>
       <c r="R37" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="S37" s="4">
         <v>0</v>
@@ -1996,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4">
         <v>0</v>
